--- a/Data Dictionaries (Upload Here)/P20WIN_Data_Dictionary_Template.xlsx
+++ b/Data Dictionaries (Upload Here)/P20WIN_Data_Dictionary_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49679EB-B081-4D8B-9A87-3B9147C0C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E1EBD-424D-439B-9721-10E35F782EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9300" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>2010 to 2021</t>
   </si>
   <si>
-    <t>Program/Source</t>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -172,9 +172,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -182,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -541,21 +541,21 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="6" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="4" customWidth="1"/>
-    <col min="8" max="34" width="3.33203125" style="4" customWidth="1"/>
-    <col min="35" max="37" width="4.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="33.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8" max="34" width="3.28515625" style="4" customWidth="1"/>
+    <col min="35" max="37" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -608,86 +608,86 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
